--- a/ExelPrec3.xlsx
+++ b/ExelPrec3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>.NFLKNFK;DMFK;DV</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>DSMFDWK;JF;DMFD;LFMD,/FMD,/FMDS,/.</t>
+  </si>
+  <si>
+    <t>sdflkdwjfiohejfdef f wepiff</t>
+  </si>
+  <si>
+    <t>sdlfjdkfjdwp f df d</t>
+  </si>
+  <si>
+    <t>adflkadwplfkdpfkkfa</t>
   </si>
 </sst>
 </file>
@@ -345,27 +354,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
